--- a/module2/patient_1_anamnesis_data.xlsx
+++ b/module2/patient_1_anamnesis_data.xlsx
@@ -491,16 +491,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27 yaşında</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>eğitim durumu öğrenci</t>
+          <t>öğrenci</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -548,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25.2" customWidth="1" min="1" max="1"/>
+    <col width="37.2" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -561,7 +569,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gastrik hst</t>
+          <t>psikiyatrik öykü, gastrik hst</t>
         </is>
       </c>
     </row>
@@ -595,7 +603,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ağrı Şiddeti</t>
+          <t>Ağrıların Kaçı Şiddetli</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -627,37 +635,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ayda ağrılı geçirdiği gün sayısı 30</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ağrıların 8i şiddetli</t>
+          <t>8i</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ilaç kullanıldığında 5 saat</t>
+          <t>5 saat</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ilaç kullanmadığında devamlı 24 saat</t>
+          <t>24 saat</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Şiddetli olan ağrıların şiddeti 9</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ağrıların en sık karakteri zonklayıcı</t>
+          <t>zonklayıcı</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4 yıldır baş ağrısı var</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -680,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
+    <col width="199.2" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -763,61 +771,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ağrı esnasında fotobi seviyesi 5 (aşırı hassas)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ağrı dışında fotofobi seviyesi 2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ağrı esnasında osmofobi seviyesi 4</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ağrı dışında osmofobi seviyesi 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>bulantı seviyesi 4 (şiddetli)</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Kusma seviyesi 2 (hafif)</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Menstrüel ilişkisi yok</t>
+          <t>yok</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>migrene özgü aylık kullanım belirtilmemiş</t>
+          <t xml:space="preserve">parasetamol, NSAID </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>migrene özgü değilken ayda 30 gün</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>ayda 30 gün</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>akupunktur</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>açlık</t>
+          <t>parlak ışıklar, yanıp sönen ışıklar,, uykusuzluk-fazla uyku, hava değişimi, ortamın ışığı, ortamın havası, stress, gürültü, fiziksel aktivite, keskin kokular, açlık</t>
         </is>
       </c>
     </row>
@@ -840,7 +864,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="39.6" customWidth="1" min="1" max="1"/>
+    <col width="63.59999999999999" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -853,7 +877,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>çok katılıyor (5)</t>
+          <t>Hasta tedavinin etkili olacağına çok katılıyor (5).</t>
         </is>
       </c>
     </row>
@@ -899,11 +923,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>retinal</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>vizüel, duysal, konuşma, motor, beyin sapı, retinal</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -924,7 +956,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="38.4" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,37 +999,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MIDAS ölçeğindeki değeri 44</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HIT ölçeğindeki değeri 69</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Beck depresyon ölçeğindeki değeri 22</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Beck anksiyete ölçeğindeki değeri 23</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Allodini ölçeğindeki değeri 10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vücut kitle indeksi ölçeğindeki değeri 26,25</t>
+          <t>26,25 kg/m*m, 26,25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>UPSIS-12 ölçeğindeki değeri 27</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1052,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.4" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1031,7 +1063,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
